--- a/Product Backlog - Group G.xlsx
+++ b/Product Backlog - Group G.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>Product Backlog - Group G</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Bug reporting system set-up</t>
+  </si>
+  <si>
+    <t>Set up issues onGitHub</t>
+  </si>
+  <si>
+    <t>Implement SQL database</t>
   </si>
 </sst>
 </file>
@@ -310,9 +316,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,6 +337,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,450 +639,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>26</v>
       </c>
     </row>
